--- a/SeleniumProject/DataFiles/Voting.xlsx
+++ b/SeleniumProject/DataFiles/Voting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijchaudhary/eclipse-workspace/com.selenium.test/DataFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijchaudhary/SeleniumProject/SeleniumProject/DataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D09846B-655B-C345-9AD3-2D25BA76BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D54ED1-D384-4346-B6DA-F5C19E373633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240" xr2:uid="{E5F26FDA-6D07-3E41-8E8C-AB18C3BDBCE4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
